--- a/SuppXLS/Scen_DemProj_Ref.xlsx
+++ b/SuppXLS/Scen_DemProj_Ref.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{16C0E96B-3A46-4AE1-89CC-009262B4FE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4D9021-103A-4839-B123-457D8F7FE2F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E1213-344F-4491-B4D5-1264AD1A7529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
-    <sheet name="CAR_Dem" sheetId="2" r:id="rId2"/>
+    <sheet name="MANENERGY_Dem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -278,7 +278,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -298,7 +298,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -843,13 +842,13 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -860,7 +859,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -886,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -906,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -926,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -958,26 +957,26 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>9.4822485813413682E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1042,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1058,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1074,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -1116,11 +1115,11 @@
         <f>BY_Data!$H$5*(1+$J$4)^(E10-2022)</f>
         <v>3418.6834798338832</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -1131,11 +1130,11 @@
         <f>BY_Data!$H$5*(1+$J$4)^(E11-2022)</f>
         <v>5377.4630618523306</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -1146,11 +1145,11 @@
         <f>BY_Data!$H$5*(1+$J$4)^(E12-2022)</f>
         <v>8458.5511212612601</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -1161,11 +1160,11 @@
         <f>BY_Data!$H$5*(1+$J$4)^(E13-2022)</f>
         <v>13304.989034428607</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>7</v>
       </c>
@@ -1176,11 +1175,11 @@
         <f>BY_Data!$H$5*(1+$J$4)^(E14-2022)</f>
         <v>20928.257176492592</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -1191,11 +1190,11 @@
         <f>BY_Data!$H$5*(1+$J$4)^(E15-2022)</f>
         <v>32919.376882765209</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>7</v>
       </c>
@@ -1206,11 +1205,11 @@
         <f>BY_Data!$H$6*(1+$J$4)^(E16-2022)</f>
         <v>10073.466958308234</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -1221,11 +1220,11 @@
         <f>BY_Data!$H$6*(1+$J$4)^(E17-2022)</f>
         <v>15845.192101763289</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>7</v>
       </c>
@@ -1236,11 +1235,11 @@
         <f>BY_Data!$H$6*(1+$J$4)^(E18-2022)</f>
         <v>24923.902940358392</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>7</v>
       </c>
@@ -1251,11 +1250,11 @@
         <f>BY_Data!$H$6*(1+$J$4)^(E19-2022)</f>
         <v>39204.380343945282</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>7</v>
       </c>
@@ -1266,11 +1265,11 @@
         <f>BY_Data!$H$6*(1+$J$4)^(E20-2022)</f>
         <v>61667.044757422016</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1280,7 @@
         <f>BY_Data!$H$6*(1+$J$4)^(E21-2022)</f>
         <v>96999.987648094466</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>17</v>
       </c>
     </row>
